--- a/data/s_vals/2021/hendriks_liam.xlsx
+++ b/data/s_vals/2021/hendriks_liam.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2712122203027225</v>
+        <v>0.01253208636536152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06820384285654235</v>
+        <v>0.002658071450198252</v>
       </c>
       <c r="D2" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.715947022969984</v>
+        <v>3.77194514549548</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C3" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D3" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C4" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D4" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C5" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D5" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>7.443224043595515</v>
+        <v>24.14949828602258</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C6" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D6" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.052585811161446</v>
+        <v>6.82939032824165</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C7" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4.527437003861573</v>
+        <v>4.327115817150455</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C8" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>5.826442262256226</v>
+        <v>6.15379541431027</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C9" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D9" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5.052585811161446</v>
+        <v>6.82939032824165</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C10" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2652495715404</v>
+        <v>3.755628166162433</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C11" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>5.826442262256226</v>
+        <v>6.15379541431027</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C12" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5.826442262256226</v>
+        <v>6.15379541431027</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C13" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D13" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>5.588134748500201</v>
+        <v>20.15985084044064</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C14" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2652495715404</v>
+        <v>3.755628166162433</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C15" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D15" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9914252674566921</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.920903101306014</v>
+        <v>15.17794922793202</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C17" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D17" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>7.97877298093427</v>
+        <v>37.47995879822157</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C18" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D18" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>7.443224043595515</v>
+        <v>24.14949828602258</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05995249022859839</v>
+        <v>9.552326474482342e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01844054219601632</v>
+        <v>6.708468553440206e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.546556966274752</v>
+        <v>19.25034595625132</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C20" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D20" t="n">
-        <v>4.557183216739343</v>
+        <v>189.6080260415259</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9.131990292749146</v>
+        <v>206.5445078528883</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C21" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D21" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>5.052585811161446</v>
+        <v>6.82939032824165</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C22" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D22" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6505419486142843</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.782283412803676</v>
+        <v>1.104883657715537</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C24" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>5.826442262256226</v>
+        <v>6.15379541431027</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C25" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D25" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>6.679767722539617</v>
+        <v>35.65327920106175</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C26" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D26" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C27" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D27" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4234195081729937</v>
+        <v>0.04172184405617529</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2056309003469599</v>
+        <v>0.04103571897497393</v>
       </c>
       <c r="D28" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.097214342370091</v>
+        <v>19.33294091133218</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C29" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D29" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>7.97877298093427</v>
+        <v>37.47995879822157</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C30" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D30" t="n">
-        <v>4.557183216739343</v>
+        <v>189.6080260415259</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>10.4309955511438</v>
+        <v>208.3711874500482</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9914252674566921</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.385354163967259</v>
+        <v>1.84748871573303</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>5.012817991515091</v>
+        <v>4.831698963401555</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6505419486142843</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.044470845124851</v>
+        <v>1.67637130870356</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C34" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>5.826442262256226</v>
+        <v>6.15379541431027</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.510684949326435</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C35" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D35" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>4.243386923878008</v>
+        <v>6.038307959104277</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C36" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>5.826442262256226</v>
+        <v>6.15379541431027</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4234195081729937</v>
+        <v>0.04172184405617529</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2056309003469599</v>
+        <v>0.04103571897497393</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.480432561030801</v>
+        <v>1.337238039619874</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C38" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D38" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>5.052585811161446</v>
+        <v>6.82939032824165</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.510684949326435</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C39" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>3.456050684256962</v>
+        <v>2.964545797025059</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +1422,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C40" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D40" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C41" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.56425482993505</v>
+        <v>5.582307763322248</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +1472,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C42" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D42" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C43" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>5.56425482993505</v>
+        <v>5.582307763322248</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C44" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D44" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>7.443224043595515</v>
+        <v>24.14949828602258</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C45" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>5.56425482993505</v>
+        <v>5.582307763322248</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C46" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D46" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="47">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C47" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>4.2652495715404</v>
+        <v>3.755628166162433</v>
       </c>
     </row>
     <row r="48">
@@ -1622,22 +1622,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C48" t="n">
-        <v>3.483028374046393</v>
+        <v>9.983522426115931</v>
       </c>
       <c r="D48" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>9.013997366200391</v>
+        <v>30.34306516417429</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9914252674566921</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D49" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>4.002135945306549</v>
+        <v>19.84319158744534</v>
       </c>
     </row>
     <row r="50">
@@ -1672,22 +1672,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9914252674566921</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C50" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D50" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>3.724127242008266</v>
+        <v>5.671859677732939</v>
       </c>
     </row>
     <row r="51">
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6505419486142843</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D51" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2.569619652424723</v>
+        <v>4.178645819794754</v>
       </c>
     </row>
     <row r="52">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6505419486142843</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C52" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D52" t="n">
-        <v>10.70024785004306</v>
+        <v>3993.344853322108</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>13.60571303805727</v>
+        <v>4008.952687075932</v>
       </c>
     </row>
     <row r="53">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C53" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>5.56425482993505</v>
+        <v>5.582307763322248</v>
       </c>
     </row>
     <row r="54">
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C54" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D54" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>7.443224043595515</v>
+        <v>24.14949828602258</v>
       </c>
     </row>
     <row r="55">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4234195081729937</v>
+        <v>0.04172184405617529</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D55" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2.342497211983432</v>
+        <v>4.103368080369475</v>
       </c>
     </row>
     <row r="56">
@@ -1822,22 +1822,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4234195081729937</v>
+        <v>0.04172184405617529</v>
       </c>
       <c r="C56" t="n">
-        <v>34.179517850415</v>
+        <v>2919.202174992006</v>
       </c>
       <c r="D56" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>36.51501725573746</v>
+        <v>2936.331112335941</v>
       </c>
     </row>
     <row r="57">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C57" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>5.826442262256226</v>
+        <v>6.15379541431027</v>
       </c>
     </row>
     <row r="58">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.6505419486142843</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D58" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2.569619652424723</v>
+        <v>4.178645819794754</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2021/hendriks_liam.xlsx
+++ b/data/s_vals/2021/hendriks_liam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>3.77194514549548</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>24.14949828602258</v>
       </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>6.82939032824165</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>4.327115817150455</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>6.15379541431027</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>6.82939032824165</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>3.755628166162433</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>6.15379541431027</v>
       </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>6.15379541431027</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>20.15985084044064</v>
       </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>3.755628166162433</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>15.17794922793202</v>
       </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,6 +914,9 @@
       <c r="G17" t="n">
         <v>37.47995879822157</v>
       </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -889,6 +942,9 @@
       <c r="G18" t="n">
         <v>24.14949828602258</v>
       </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -914,6 +970,9 @@
       <c r="G19" t="n">
         <v>19.25034595625132</v>
       </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -939,6 +998,9 @@
       <c r="G20" t="n">
         <v>206.5445078528883</v>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -964,6 +1026,9 @@
       <c r="G21" t="n">
         <v>6.82939032824165</v>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -989,6 +1054,9 @@
       <c r="G22" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1014,6 +1082,9 @@
       <c r="G23" t="n">
         <v>1.104883657715537</v>
       </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1039,6 +1110,9 @@
       <c r="G24" t="n">
         <v>6.15379541431027</v>
       </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1064,6 +1138,9 @@
       <c r="G25" t="n">
         <v>35.65327920106175</v>
       </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1089,6 +1166,9 @@
       <c r="G26" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1114,6 +1194,9 @@
       <c r="G27" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1139,6 +1222,9 @@
       <c r="G28" t="n">
         <v>19.33294091133218</v>
       </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1164,6 +1250,9 @@
       <c r="G29" t="n">
         <v>37.47995879822157</v>
       </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1189,6 +1278,9 @@
       <c r="G30" t="n">
         <v>208.3711874500482</v>
       </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1214,6 +1306,9 @@
       <c r="G31" t="n">
         <v>1.84748871573303</v>
       </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1239,6 +1334,9 @@
       <c r="G32" t="n">
         <v>4.831698963401555</v>
       </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1264,6 +1362,9 @@
       <c r="G33" t="n">
         <v>1.67637130870356</v>
       </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1289,6 +1390,9 @@
       <c r="G34" t="n">
         <v>6.15379541431027</v>
       </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1314,6 +1418,9 @@
       <c r="G35" t="n">
         <v>6.038307959104277</v>
       </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1339,6 +1446,9 @@
       <c r="G36" t="n">
         <v>6.15379541431027</v>
       </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1364,6 +1474,9 @@
       <c r="G37" t="n">
         <v>1.337238039619874</v>
       </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1389,6 +1502,9 @@
       <c r="G38" t="n">
         <v>6.82939032824165</v>
       </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1414,6 +1530,9 @@
       <c r="G39" t="n">
         <v>2.964545797025059</v>
       </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1439,6 +1558,9 @@
       <c r="G40" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1464,6 +1586,9 @@
       <c r="G41" t="n">
         <v>5.582307763322248</v>
       </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1489,6 +1614,9 @@
       <c r="G42" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1514,6 +1642,9 @@
       <c r="G43" t="n">
         <v>5.582307763322248</v>
       </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1539,6 +1670,9 @@
       <c r="G44" t="n">
         <v>24.14949828602258</v>
       </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1564,6 +1698,9 @@
       <c r="G45" t="n">
         <v>5.582307763322248</v>
       </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1589,6 +1726,9 @@
       <c r="G46" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1614,6 +1754,9 @@
       <c r="G47" t="n">
         <v>3.755628166162433</v>
       </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1639,6 +1782,9 @@
       <c r="G48" t="n">
         <v>30.34306516417429</v>
       </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1664,6 +1810,9 @@
       <c r="G49" t="n">
         <v>19.84319158744534</v>
       </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1689,6 +1838,9 @@
       <c r="G50" t="n">
         <v>5.671859677732939</v>
       </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1714,6 +1866,9 @@
       <c r="G51" t="n">
         <v>4.178645819794754</v>
       </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1739,6 +1894,9 @@
       <c r="G52" t="n">
         <v>4008.952687075932</v>
       </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1764,6 +1922,9 @@
       <c r="G53" t="n">
         <v>5.582307763322248</v>
       </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1789,6 +1950,9 @@
       <c r="G54" t="n">
         <v>24.14949828602258</v>
       </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1814,6 +1978,9 @@
       <c r="G55" t="n">
         <v>4.103368080369475</v>
       </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1839,6 +2006,9 @@
       <c r="G56" t="n">
         <v>2936.331112335941</v>
       </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1864,6 +2034,9 @@
       <c r="G57" t="n">
         <v>6.15379541431027</v>
       </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1888,6 +2061,9 @@
       </c>
       <c r="G58" t="n">
         <v>4.178645819794754</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2021/hendriks_liam.xlsx
+++ b/data/s_vals/2021/hendriks_liam.xlsx
@@ -523,7 +523,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -859,7 +859,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1055,7 +1055,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1167,7 +1167,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1195,7 +1195,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1559,7 +1559,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1615,7 +1615,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1727,7 +1727,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
